--- a/data/trans_orig/iP30A8_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30A8_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FC1003F-E12D-4C3A-BF0D-71E2CB4E4363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F306C31-021A-43FB-B6F3-87CD4999709F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1035A147-617F-4C20-ADD8-0CA05EDD1436}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{405E2DA8-8D7E-4F5D-9781-4F4CBDD8EAAD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -131,6 +131,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -186,63 +243,6 @@
   </si>
   <si>
     <t>51,28%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
   </si>
   <si>
     <t>53,89%</t>
@@ -688,7 +688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A6073A-48BE-46B3-806C-622434F47ABD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FC9AA0-CBF4-4D94-A664-5F2622EF5631}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -961,10 +961,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>254</v>
+        <v>151</v>
       </c>
       <c r="D7" s="7">
-        <v>211037</v>
+        <v>108888</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -976,10 +976,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>249</v>
+        <v>156</v>
       </c>
       <c r="I7" s="7">
-        <v>182287</v>
+        <v>108849</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -991,10 +991,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>503</v>
+        <v>307</v>
       </c>
       <c r="N7" s="7">
-        <v>393323</v>
+        <v>217737</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1012,10 +1012,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>224</v>
+        <v>119</v>
       </c>
       <c r="D8" s="7">
-        <v>191244</v>
+        <v>95586</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1027,10 +1027,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>212</v>
+        <v>125</v>
       </c>
       <c r="I8" s="7">
-        <v>167327</v>
+        <v>89418</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1042,10 +1042,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>436</v>
+        <v>244</v>
       </c>
       <c r="N8" s="7">
-        <v>358571</v>
+        <v>185004</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1063,10 +1063,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>478</v>
+        <v>270</v>
       </c>
       <c r="D9" s="7">
-        <v>402281</v>
+        <v>204474</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1078,10 +1078,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>461</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>349614</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1093,10 +1093,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>939</v>
+        <v>551</v>
       </c>
       <c r="N9" s="7">
-        <v>751894</v>
+        <v>402741</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1116,10 +1116,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="D10" s="7">
-        <v>108888</v>
+        <v>211037</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1131,10 +1131,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>156</v>
+        <v>249</v>
       </c>
       <c r="I10" s="7">
-        <v>108849</v>
+        <v>182287</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1146,10 +1146,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>307</v>
+        <v>503</v>
       </c>
       <c r="N10" s="7">
-        <v>217737</v>
+        <v>393323</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1167,10 +1167,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>119</v>
+        <v>224</v>
       </c>
       <c r="D11" s="7">
-        <v>95586</v>
+        <v>191244</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1182,10 +1182,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="I11" s="7">
-        <v>89418</v>
+        <v>167327</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1197,10 +1197,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>244</v>
+        <v>436</v>
       </c>
       <c r="N11" s="7">
-        <v>185004</v>
+        <v>358571</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1218,10 +1218,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>270</v>
+        <v>478</v>
       </c>
       <c r="D12" s="7">
-        <v>204474</v>
+        <v>402281</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1233,10 +1233,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>461</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>349614</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1248,10 +1248,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>551</v>
+        <v>939</v>
       </c>
       <c r="N12" s="7">
-        <v>402741</v>
+        <v>751894</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/iP30A8_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30A8_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F306C31-021A-43FB-B6F3-87CD4999709F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFC74033-0461-4CB6-8601-9A8A4D9EECD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{405E2DA8-8D7E-4F5D-9781-4F4CBDD8EAAD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4AA5250F-A36B-472C-8ACF-21C2A90101CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
   <si>
     <t>Menores según si toman pasta o arroz casi a diario en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -65,184 +65,259 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
+    <t>3-7</t>
   </si>
   <si>
     <t>52,14%</t>
   </si>
   <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
   </si>
   <si>
     <t>47,86%</t>
   </si>
   <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
   </si>
   <si>
     <t>53,89%</t>
@@ -251,52 +326,25 @@
     <t>50,62%</t>
   </si>
   <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
     <t>57,52%</t>
   </si>
   <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
     <t>53,91%</t>
   </si>
   <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -307,7 +355,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -403,39 +451,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -487,7 +535,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -598,13 +646,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -613,6 +654,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -677,19 +725,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FC9AA0-CBF4-4D94-A664-5F2622EF5631}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C49472-F348-4300-B563-E7D3BD3DB9A6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -806,10 +874,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>62305</v>
+        <v>13430</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -821,10 +889,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="I4" s="7">
-        <v>54366</v>
+        <v>19662</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -836,10 +904,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>223</v>
+        <v>58</v>
       </c>
       <c r="N4" s="7">
-        <v>116671</v>
+        <v>33091</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -857,10 +925,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7">
-        <v>40274</v>
+        <v>29714</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -872,10 +940,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="I5" s="7">
-        <v>38361</v>
+        <v>26631</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -887,10 +955,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="N5" s="7">
-        <v>78635</v>
+        <v>56345</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -908,10 +976,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="D6" s="7">
-        <v>102579</v>
+        <v>43144</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -923,10 +991,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>92727</v>
+        <v>46293</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -938,10 +1006,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>365</v>
+        <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>195306</v>
+        <v>89436</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -961,10 +1029,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D7" s="7">
-        <v>108888</v>
+        <v>91093</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -976,10 +1044,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="I7" s="7">
-        <v>108849</v>
+        <v>75700</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -991,10 +1059,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>307</v>
+        <v>249</v>
       </c>
       <c r="N7" s="7">
-        <v>217737</v>
+        <v>166794</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1012,10 +1080,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D8" s="7">
-        <v>95586</v>
+        <v>83624</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1027,10 +1095,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="I8" s="7">
-        <v>89418</v>
+        <v>83065</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1042,10 +1110,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="N8" s="7">
-        <v>185004</v>
+        <v>166688</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1063,10 +1131,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D9" s="7">
-        <v>204474</v>
+        <v>174717</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1078,10 +1146,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1093,10 +1161,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>402741</v>
+        <v>333482</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1116,10 +1184,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>254</v>
+        <v>97</v>
       </c>
       <c r="D10" s="7">
-        <v>211037</v>
+        <v>85541</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1131,10 +1199,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>249</v>
+        <v>106</v>
       </c>
       <c r="I10" s="7">
-        <v>182287</v>
+        <v>81988</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1146,10 +1214,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>503</v>
+        <v>203</v>
       </c>
       <c r="N10" s="7">
-        <v>393323</v>
+        <v>167529</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1167,10 +1235,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="D11" s="7">
-        <v>191244</v>
+        <v>116937</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1182,10 +1250,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>212</v>
+        <v>127</v>
       </c>
       <c r="I11" s="7">
-        <v>167327</v>
+        <v>94125</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1197,10 +1265,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>436</v>
+        <v>273</v>
       </c>
       <c r="N11" s="7">
-        <v>358571</v>
+        <v>211062</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1218,10 +1286,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>478</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>402281</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1233,10 +1301,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>349614</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1248,10 +1316,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>939</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>751894</v>
+        <v>378591</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1265,31 +1333,31 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>524</v>
+        <v>163</v>
       </c>
       <c r="D13" s="7">
-        <v>382229</v>
+        <v>137040</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7">
-        <v>509</v>
+        <v>149</v>
       </c>
       <c r="I13" s="7">
-        <v>345503</v>
+        <v>117756</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1301,10 +1369,10 @@
         <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>1033</v>
+        <v>312</v>
       </c>
       <c r="N13" s="7">
-        <v>727732</v>
+        <v>254796</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1322,49 +1390,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>416</v>
+        <v>178</v>
       </c>
       <c r="D14" s="7">
-        <v>327105</v>
+        <v>151954</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>192</v>
+      </c>
+      <c r="I14" s="7">
+        <v>141682</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>406</v>
-      </c>
-      <c r="I14" s="7">
-        <v>295106</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>370</v>
+      </c>
+      <c r="N14" s="7">
+        <v>293637</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M14" s="7">
-        <v>822</v>
-      </c>
-      <c r="N14" s="7">
-        <v>622210</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1373,55 +1441,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>341</v>
+      </c>
+      <c r="D15" s="7">
+        <v>288994</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>341</v>
+      </c>
+      <c r="I15" s="7">
+        <v>259438</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>682</v>
+      </c>
+      <c r="N15" s="7">
+        <v>548433</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>416</v>
+      </c>
+      <c r="D16" s="7">
+        <v>327104</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>406</v>
+      </c>
+      <c r="I16" s="7">
+        <v>295106</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" s="7">
+        <v>822</v>
+      </c>
+      <c r="N16" s="7">
+        <v>622210</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>524</v>
+      </c>
+      <c r="D17" s="7">
+        <v>382229</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="7">
+        <v>509</v>
+      </c>
+      <c r="I17" s="7">
+        <v>345503</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1033</v>
+      </c>
+      <c r="N17" s="7">
+        <v>727732</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>940</v>
       </c>
-      <c r="D15" s="7">
-        <v>709334</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="D18" s="7">
+        <v>709333</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>915</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>640609</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1855</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1349942</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
